--- a/biology/Botanique/Classification_des_chênes/Classification_des_chênes.xlsx
+++ b/biology/Botanique/Classification_des_chênes/Classification_des_chênes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Classification_des_ch%C3%AAnes</t>
+          <t>Classification_des_chênes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classification des Chênes (Quercus) comprend environ 600 espèces situées majoritairement dans l'hémisphère Nord, dont 8 poussent spontanément en France[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classification des Chênes (Quercus) comprend environ 600 espèces situées majoritairement dans l'hémisphère Nord, dont 8 poussent spontanément en France.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Classification_des_ch%C3%AAnes</t>
+          <t>Classification_des_chênes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,11 +525,54 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Sous-genre Cyclobalanopsis
-Feuilles persistantes, entières ou dentées mais jamais lobées, vert brillant dessus ; cupule du gland à écailles soudées disposées en anneaux concentriques ; toutes les espèces en Asie.
-Sous-genre Quercus
-Section Quercus ( = Lepidobalanus)
-inclut les Chênes blancs (Lepidobalanus), les Chênes d'Europe, d'Asie et d'Amérique et d'Afrique du Nord.
+          <t>Sous-genre Cyclobalanopsis</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Feuilles persistantes, entières ou dentées mais jamais lobées, vert brillant dessus ; cupule du gland à écailles soudées disposées en anneaux concentriques ; toutes les espèces en Asie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Classification_des_chênes</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_des_ch%C3%AAnes</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Genre Quercus</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Sous-genre Quercus</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Section Quercus ( = Lepidobalanus)</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>inclut les Chênes blancs (Lepidobalanus), les Chênes d'Europe, d'Asie et d'Amérique et d'Afrique du Nord.
 Styles courts ; glands mûrissent généralement en 6 mois, doux ou légèrement amers, endocarpe glabre.
 Quercus alba, Chêne blanc d'Amérique
 Quercus aliena
@@ -594,18 +649,94 @@
 Quercus turbinella
 Quercus undulata
 Quercus vaseyana
-Quercus virginiana, persistant
-Section Mesobalanus
-Inclut les Chênes hongrois et apparentés d'Europe et d'Asie.
+Quercus virginiana, persistant</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Classification_des_chênes</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_des_ch%C3%AAnes</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Genre Quercus</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sous-genre Quercus</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Section Mesobalanus</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Inclut les Chênes hongrois et apparentés d'Europe et d'Asie.
 Styles longs ; glands murissent en 6 mois, amers, endocarpe glabre (assez proches de la section Quercus et parfois incluse dans celle-ci).
 Quercus dentata
 Quercus frainetto
 Quercus macranthera
 Quercus pontica, Chêne d'Arménie, Chêne pontin
 Quercus pyrenaica, Chêne tauzin
-Quercus vulcanica
-Section Cerris
-Section Cerris, les Chênes de Turquie et apparentés d'Europe et d'Asie.
+Quercus vulcanica</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Classification_des_chênes</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_des_ch%C3%AAnes</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Genre Quercus</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Sous-genre Quercus</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Section Cerris</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Section Cerris, les Chênes de Turquie et apparentés d'Europe et d'Asie.
 Styles longs ; glands mûrissent en 18 mois, très amers, endocarpe glabre ou légèrement duveteux.
 Quercus acutissima Carruth. 1862, Chêne du Japon
 Quercus acrodonta, Seemen 1897, persistant, (synonyme Quercus phillyreoides)
@@ -624,17 +755,93 @@
 Quercus semecarpifolia, persistant
 Quercus suber, Chêne liège, persistant
 Quercus trojana
-Quercus variabilis
-Section Protobalanus
-Inclut les Chênes du Sud-Est des États-Unis et du Nord-Ouest du Mexique.
+Quercus variabilis</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Classification_des_chênes</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_des_ch%C3%AAnes</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Genre Quercus</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Sous-genre Quercus</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Section Protobalanus</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Inclut les Chênes du Sud-Est des États-Unis et du Nord-Ouest du Mexique.
 Styles courts, les glands mûrissent en 18 mois, très amers, endocarpe duveteux.
 Quercus cedrosensis
 Quercus chrysolepis
 Quercus palmeri
 Quercus tomentella
-Quercus vacciniifolia
-Section Lobatae ( = Erythrobalanus)
-Inclut les Chênes rouges d'Amérique du Nord, d'Amérique centrale et du Nord de l'Amérique du Sud.
+Quercus vacciniifolia</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Classification_des_chênes</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_des_ch%C3%AAnes</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Genre Quercus</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Sous-genre Quercus</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Section Lobatae ( = Erythrobalanus)</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Inclut les Chênes rouges d'Amérique du Nord, d'Amérique centrale et du Nord de l'Amérique du Sud.
 Style long, glands longs mûrissent en 18 mois, très amers, endocarpes duveteux.
 Quercus acerifolia
 Quercus agrifolia, persistant
